--- a/output/google_maps_data_SD_Gunungkidul.xlsx
+++ b/output/google_maps_data_SD_Gunungkidul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -507,25 +502,24 @@
           <t>(0274) 391746</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F2" t="n">
-        <v>4.6</v>
+        <v>-7.966156</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.966156</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.601235</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Wonosari+1/@-7.8118958,110.2147995,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb343a56c1ef7:0x9b52c8d8b8a10657!8m2!3d-7.9661558!4d110.6012345!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJvY1RoSGRGbFJFQUXgAQD6AQQIABA-!16s%2Fg%2F1hm3ptvxs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Wonosari+1/@-7.8118958,110.2147995,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb343a56c1ef7:0x9b52c8d8b8a10657!8m2!3d-7.9661558!4d110.6012345!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJvY1RoSGRGbFJFQUXgAQD6AQQIABA-!16s%2Fg%2F1hm3ptvxs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -544,25 +538,24 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.6</v>
+        <v>-7.935893</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.935893</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.61049</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Kajar/@-7.8118958,110.2147995,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a4ca5d6b3038d:0xe633df0c1842a202!8m2!3d-7.935893!4d110.6104904!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5vYnkxZllsTlJFQUXgAQD6AQQIABA6!16s%2Fg%2F1hm5nw1m5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Kajar/@-7.8118958,110.2147995,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a4ca5d6b3038d:0xe633df0c1842a202!8m2!3d-7.935893!4d110.6104904!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5vYnkxZllsTlJFQUXgAQD6AQQIABA6!16s%2Fg%2F1hm5nw1m5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -581,25 +574,24 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.6</v>
+        <v>-7.889098</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.889098</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.495558</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Wonolagi/@-7.8118958,110.2147995,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a523e452055e9:0x939088fde95370ad!8m2!3d-7.889098!4d110.495558!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJQZEc5UFUxbDNFQUXgAQD6AQQIABA-!16s%2Fg%2F11f1jw_6sd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Wonolagi/@-7.8118958,110.2147995,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a523e452055e9:0x939088fde95370ad!8m2!3d-7.889098!4d110.495558!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJQZEc5UFUxbDNFQUXgAQD6AQQIABA-!16s%2Fg%2F11f1jw_6sd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -618,25 +610,24 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.6</v>
+        <v>-7.966695</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.966695</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.621005</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Selang/@-7.8118958,110.2147995,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb4a1bba66141:0xec035bb60bff6b09!8m2!3d-7.9666946!4d110.6210049!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5RYmxCZmFIRjNSUkFC4AEA-gEECAAQPQ!16s%2Fg%2F1hm6g9l4l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Selang/@-7.8118958,110.2147995,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb4a1bba66141:0xec035bb60bff6b09!8m2!3d-7.9666946!4d110.6210049!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5RYmxCZmFIRjNSUkFC4AEA-gEECAAQPQ!16s%2Fg%2F1hm6g9l4l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -663,25 +654,24 @@
           <t>(0274) 392460</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.6</v>
+        <v>-7.955418</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.955418</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.59467</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+dan+TK+Islam+Terpadu+Tunas+Mulia/@-7.8118958,110.2147995,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb34994d0a8c3:0x383be837fcf268af!8m2!3d-7.955418!4d110.59467!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5QTW1ScVpHZFJSUkFC4AEA-gEECAAQQg!16s%2Fg%2F1hm4wbqkj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+dan+TK+Islam+Terpadu+Tunas+Mulia/@-7.8118958,110.2147995,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb34994d0a8c3:0x383be837fcf268af!8m2!3d-7.955418!4d110.59467!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5QTW1ScVpHZFJSUkFC4AEA-gEECAAQQg!16s%2Fg%2F1hm4wbqkj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -700,25 +690,24 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>-8.162478</v>
       </c>
       <c r="G7" t="n">
-        <v>-8.162478</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.782342</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Pucung+Girisubo+Gunungkidul+Yogyakarta/@-8.1624776,110.4939508,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bc6eb3fa4dcbf:0xd81f5c624e9df62f!8m2!3d-8.1624776!4d110.7823419!15sCg5TRCBHdW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F11f03qkh4z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Pucung+Girisubo+Gunungkidul+Yogyakarta/@-8.1624776,110.4939508,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bc6eb3fa4dcbf:0xd81f5c624e9df62f!8m2!3d-8.1624776!4d110.7823419!15sCg5TRCBHdW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F11f03qkh4z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -741,25 +730,24 @@
           <t>0813-2622-7611</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.6</v>
+        <v>-7.967874</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.967874</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.60967</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Al+Mujahidin+Wonosari/@-7.9678737,110.3212791,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb35935f8e147:0x63bc4292603151a3!8m2!3d-7.9678737!4d110.6096702!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBEWVsZW1lbnRhcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJDWjFsWFprNTNFQUXgAQD6AQQIABA9!16s%2Fg%2F1hm2y7qp0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Al+Mujahidin+Wonosari/@-7.9678737,110.3212791,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb35935f8e147:0x63bc4292603151a3!8m2!3d-7.9678737!4d110.6096702!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBEWVsZW1lbnRhcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJDWjFsWFprNTNFQUXgAQD6AQQIABA9!16s%2Fg%2F1hm2y7qp0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -782,25 +770,24 @@
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.6</v>
+        <v>-7.968671</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.968671</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.596011</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Wonosari+Baru/@-7.9678737,110.3212791,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb34034e8218f:0x5fb5911ae75268f6!8m2!3d-7.968671!4d110.5960111!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5vYVRaMk1ucFJSUkFC4AEA-gEECAAQPw!16s%2Fg%2F1hm61nm22?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Wonosari+Baru/@-7.9678737,110.3212791,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb34034e8218f:0x5fb5911ae75268f6!8m2!3d-7.968671!4d110.5960111!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5vYVRaMk1ucFJSUkFC4AEA-gEECAAQPw!16s%2Fg%2F1hm61nm22?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -823,25 +810,24 @@
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.6</v>
+        <v>-7.885187</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.885187</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.596672</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Sendowo+I/@-7.9678737,110.3212791,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a4c14fa6a6503:0x2ee9e0cce2d82b4!8m2!3d-7.8851875!4d110.5966719!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVIxTVhCVVJISm5SUkFC4AEA-gEFCLIBEBw!16s%2Fg%2F11dxh_fqgy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Sendowo+I/@-7.9678737,110.3212791,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a4c14fa6a6503:0x2ee9e0cce2d82b4!8m2!3d-7.8851875!4d110.5966719!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVIxTVhCVVJISm5SUkFC4AEA-gEFCLIBEBw!16s%2Fg%2F11dxh_fqgy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -864,25 +850,24 @@
           <t>(0274) 392212</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.5</v>
+        <v>-7.959859</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.959859</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.593528</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Wonosari+IV/@-7.9678737,110.3212791,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb3482360daff:0xe5de3db9b0a3d4f2!8m2!3d-7.9598594!4d110.5935277!15sCg5TRCBHdW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1pzpp1qgy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Wonosari+IV/@-7.9678737,110.3212791,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb3482360daff:0xe5de3db9b0a3d4f2!8m2!3d-7.9598594!4d110.5935277!15sCg5TRCBHdW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1pzpp1qgy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>10 bulan lalu</t>
         </is>
@@ -905,25 +890,24 @@
           <t>(0274) 885765</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.9</v>
+        <v>-7.957176</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.957176</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.620434</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Islam+Al+Azhar+59+Wonosari+Gunungkidul/@-7.9678737,110.3212791,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb5a2fcd24785:0x32414607d12f2bc!8m2!3d-7.957176!4d110.6204337!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBEWVsZW1lbnRhcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5TZFc5MU4xbDNFQUXgAQD6AQQIABBD!16s%2Fg%2F11m9qr93t7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Islam+Al+Azhar+59+Wonosari+Gunungkidul/@-7.9678737,110.3212791,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb5a2fcd24785:0x32414607d12f2bc!8m2!3d-7.957176!4d110.6204337!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBEWVsZW1lbnRhcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5TZFc5MU4xbDNFQUXgAQD6AQQIABBD!16s%2Fg%2F11m9qr93t7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -950,25 +934,24 @@
           <t>(0274) 393172</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>-7.96942</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.96942</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.599087</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SDN+Wonosari+II/@-7.9678737,110.3212791,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb342003539f1:0x3ca77d0f5e270765!8m2!3d-7.9694202!4d110.5990867!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU4xYm1GcFIzTjNSUkFC4AEA-gEECGQQIg!16s%2Fg%2F1hm3n90c7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SDN+Wonosari+II/@-7.9678737,110.3212791,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb342003539f1:0x3ca77d0f5e270765!8m2!3d-7.9694202!4d110.5990867!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU4xYm1GcFIzTjNSUkFC4AEA-gEECGQQIg!16s%2Fg%2F1hm3n90c7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -987,25 +970,24 @@
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>-7.922789</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.922789</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.535234</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Teguhan/@-7.9678737,110.3212791,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a4d6fbe3fc179:0x84756057be6eb33e!8m2!3d-7.9227889!4d110.5352338!15sCg5TRCBHdW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm22_ktj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Teguhan/@-7.9678737,110.3212791,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a4d6fbe3fc179:0x84756057be6eb33e!8m2!3d-7.9227889!4d110.5352338!15sCg5TRCBHdW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm22_ktj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1028,25 +1010,24 @@
           <t>(0274) 391520</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.6</v>
+        <v>-7.940621</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.940621</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.595438</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Piyaman+1/@-7.9678737,110.3212791,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb4a8ee84e4b9:0x9dd68a23ac80a54!8m2!3d-7.9406212!4d110.5954381!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBEWVsZW1lbnRhcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5vWjBsWVRGcFJFQUXgAQD6AQQIABBD!16s%2Fg%2F1pzrwlf5h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Piyaman+1/@-7.9678737,110.3212791,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb4a8ee84e4b9:0x9dd68a23ac80a54!8m2!3d-7.9406212!4d110.5954381!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBEWVsZW1lbnRhcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5vWjBsWVRGcFJFQUXgAQD6AQQIABBD!16s%2Fg%2F1pzrwlf5h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1073,25 +1054,24 @@
           <t>(0274) 4544696</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F16" t="n">
-        <v>3.8</v>
+        <v>-7.848548</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.848548</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.482797</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Patuk+1/@-7.9678737,110.3212791,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a51a2f89007bd:0x3c06add919d2d40e!8m2!3d-7.8485479!4d110.4827966!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJoWjNGcFpHZG5SUkFC4AEA-gEECAAQIQ!16s%2Fg%2F11c6f6xspj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Patuk+1/@-7.9678737,110.3212791,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a51a2f89007bd:0x3c06add919d2d40e!8m2!3d-7.8485479!4d110.4827966!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJoWjNGcFpHZG5SUkFC4AEA-gEECAAQIQ!16s%2Fg%2F11c6f6xspj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1110,25 +1090,24 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.5</v>
+        <v>-7.864153</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.864153</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.541649</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Sendangsari/@-7.9678737,110.3212791,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a4e0c79ae3273:0x984e70c148bbff79!8m2!3d-7.8641535!4d110.5416492!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVI1Y0RSSE4ydDNSUkFC4AEA-gEECAAQKg!16s%2Fg%2F1hm3h2_vq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Sendangsari/@-7.9678737,110.3212791,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a4e0c79ae3273:0x984e70c148bbff79!8m2!3d-7.8641535!4d110.5416492!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVI1Y0RSSE4ydDNSUkFC4AEA-gEECAAQKg!16s%2Fg%2F1hm3h2_vq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1155,25 +1134,24 @@
           <t>(0274) 394343</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.7</v>
+        <v>-7.979874</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.979874</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.597945</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Karangrejek+2/@-7.9678737,110.3212791,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb37209fba87b:0xf781bb077ded2431!8m2!3d-7.9798739!4d110.5979449!15sCg5TRCBHdW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1ptxmfnj5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Karangrejek+2/@-7.9678737,110.3212791,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb37209fba87b:0xf781bb077ded2431!8m2!3d-7.9798739!4d110.5979449!15sCg5TRCBHdW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1ptxmfnj5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1192,25 +1170,24 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.2</v>
+        <v>-7.973297</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.973297</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.614267</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Baleharjo/@-7.9678737,110.3212791,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb3619d13a2cd:0x5e498b42d8158ced!8m2!3d-7.9732975!4d110.6142669!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU10YkdaeFpHWm5FQUXgAQD6AQQIABAZ!16s%2Fg%2F1hm4wzw5f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Baleharjo/@-7.9678737,110.3212791,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb3619d13a2cd:0x5e498b42d8158ced!8m2!3d-7.9732975!4d110.6142669!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU10YkdaeFpHWm5FQUXgAQD6AQQIABAZ!16s%2Fg%2F1hm4wzw5f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -1233,25 +1210,24 @@
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.8</v>
+        <v>-7.947445</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.947445</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.566958</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Bogor/@-7.9678737,110.3212791,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a4d2a444accef:0x18ab7e5bf02acaf7!8m2!3d-7.9474446!4d110.5669582!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5MYjJFM05VOVJFQUXgAQD6AQQIABAw!16s%2Fg%2F1hm35t4jk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Bogor/@-7.9678737,110.3212791,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a4d2a444accef:0x18ab7e5bf02acaf7!8m2!3d-7.9474446!4d110.5669582!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5MYjJFM05VOVJFQUXgAQD6AQQIABAw!16s%2Fg%2F1hm35t4jk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -1278,25 +1254,24 @@
           <t>(0274) 392876</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.6</v>
+        <v>-7.961423</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.961423</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.596941</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Wonosari+6/@-7.9678737,110.3212791,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb3465a964f13:0xb9ef2d209dc73559!8m2!3d-7.9614227!4d110.5969411!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5zYTJRM1RUUlJSUkFC4AEA-gEECAAQHg!16s%2Fg%2F11c718dtyc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Wonosari+6/@-7.9678737,110.3212791,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb3465a964f13:0xb9ef2d209dc73559!8m2!3d-7.9614227!4d110.5969411!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5zYTJRM1RUUlJSUkFC4AEA-gEECAAQHg!16s%2Fg%2F11c718dtyc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -1315,25 +1290,24 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F22" t="n">
-        <v>3.7</v>
+        <v>-7.97571</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.97571</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.59393</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Seneng/@-7.9678737,110.3212791,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb36cbac3057b:0xf2b25ee5f1ae2f6b!8m2!3d-7.97571!4d110.59393!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU40TUc5aVpFaFJFQUXgAQD6AQQIABAZ!16s%2Fg%2F1hm6dmwbn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Seneng/@-7.9678737,110.3212791,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb36cbac3057b:0xf2b25ee5f1ae2f6b!8m2!3d-7.97571!4d110.59393!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU40TUc5aVpFaFJFQUXgAQD6AQQIABAZ!16s%2Fg%2F1hm6dmwbn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1352,25 +1326,24 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>5</v>
+      </c>
       <c r="F23" t="n">
-        <v>5</v>
+        <v>-7.920528</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.920528</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.603962</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Karangtengah+3/@-7.9678737,110.3212791,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a4d6f7561880b:0x79f2ef1c943bb929!8m2!3d-7.9205277!4d110.6039619!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBEWVsZW1lbnRhcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5TTTNaaFNFVjNFQUXgAQD6AQQIABAT!16s%2Fg%2F11hz6l5zty?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Karangtengah+3/@-7.9678737,110.3212791,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a4d6f7561880b:0x79f2ef1c943bb929!8m2!3d-7.9205277!4d110.6039619!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBEWVsZW1lbnRhcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5TTTNaaFNFVjNFQUXgAQD6AQQIABAT!16s%2Fg%2F11hz6l5zty?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -1389,25 +1362,24 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.8</v>
+        <v>-7.911197</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.911197</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.716965</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SDN+Surodadi+1+Ponjong+Gunungkidul+Yogyakarta/@-7.9678737,110.3212791,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a357cbb1d523d:0xddd92645a78fca0c!8m2!3d-7.9111972!4d110.7169649!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU0xYVRseGNIbEJSUkFC4AEA-gEECAAQNw!16s%2Fg%2F11gbksttjm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SDN+Surodadi+1+Ponjong+Gunungkidul+Yogyakarta/@-7.9678737,110.3212791,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a357cbb1d523d:0xddd92645a78fca0c!8m2!3d-7.9111972!4d110.7169649!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU0xYVRseGNIbEJSUkFC4AEA-gEECAAQNw!16s%2Fg%2F11gbksttjm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1426,25 +1398,24 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.5</v>
+        <v>-7.932591</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.932591</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.604205</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Karangtengah+Baru/@-7.9678737,110.3212791,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a4cbcad9066c5:0x9f8444b538fa9aa7!8m2!3d-7.9325913!4d110.6042049!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBBnNjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOYWFIRnFVamQzUlJBQuABAPoBBAgAEB8!16s%2Fg%2F11c717dbj_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Karangtengah+Baru/@-7.9678737,110.3212791,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a4cbcad9066c5:0x9f8444b538fa9aa7!8m2!3d-7.9325913!4d110.6042049!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBBnNjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOYWFIRnFVamQzUlJBQuABAPoBBAgAEB8!16s%2Fg%2F11c717dbj_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1471,25 +1442,24 @@
           <t>0821-3464-6061</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.3</v>
+        <v>-8.017594000000001</v>
       </c>
       <c r="G26" t="n">
-        <v>-8.017594000000001</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.627355</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Kwangen/@-7.9678737,110.3212791,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb40fc90f0481:0x6f44017167f4f057!8m2!3d-8.0175945!4d110.6273548!15sCg5TRCBHdW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm3djm66?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Kwangen/@-7.9678737,110.3212791,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb40fc90f0481:0x6f44017167f4f057!8m2!3d-8.0175945!4d110.6273548!15sCg5TRCBHdW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm3djm66?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -1508,25 +1478,24 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F27" t="n">
-        <v>4.7</v>
+        <v>-7.962415</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.962415</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.608902</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Wonosari/@-7.9678737,110.3212791,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb35bbcb42b6f:0x28f84c455a30a898!8m2!3d-7.9624148!4d110.6089019!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJLWjB0TE1YVlJSUkFC4AEA-gEECAAQNA!16s%2Fg%2F1hm3rn43q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Wonosari/@-7.9678737,110.3212791,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb35bbcb42b6f:0x28f84c455a30a898!8m2!3d-7.9624148!4d110.6089019!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJLWjB0TE1YVlJSUkFC4AEA-gEECAAQNA!16s%2Fg%2F1hm3rn43q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1545,25 +1514,24 @@
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F28" t="n">
-        <v>4.5</v>
+        <v>-7.983602</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.983602</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.402425</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Banyumeneng/@-7.983602,110.1140336,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bab6b35592c09:0x5ec9188ac8e84a09!8m2!3d-7.983602!4d110.4024247!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJDYlhGVGJHNVJSUkFC4AEA-gEECAAQGw!16s%2Fg%2F12hp20w1f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Banyumeneng/@-7.983602,110.1140336,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bab6b35592c09:0x5ec9188ac8e84a09!8m2!3d-7.983602!4d110.4024247!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJDYlhGVGJHNVJSUkFC4AEA-gEECAAQGw!16s%2Fg%2F12hp20w1f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1582,25 +1550,24 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F29" t="n">
-        <v>4.1</v>
+        <v>-8.002660000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>-8.002660000000001</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.56531</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Soka/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb24d8f1fd1fb:0xad097549667994f1!8m2!3d-8.00266!4d110.56531!15sCg5TRCBHdW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm67g4mn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Soka/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb24d8f1fd1fb:0xad097549667994f1!8m2!3d-8.00266!4d110.56531!15sCg5TRCBHdW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm67g4mn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1623,25 +1590,24 @@
           <t>(0274) 392519</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F30" t="n">
-        <v>3.7</v>
+        <v>-7.96089</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.96089</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.601644</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Jeruksari/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb345a3e24ae9:0x4ba9675f3c31526c!8m2!3d-7.9608901!4d110.6016439!15sCg5TRCBHdW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm54zb8q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Jeruksari/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb345a3e24ae9:0x4ba9675f3c31526c!8m2!3d-7.9608901!4d110.6016439!15sCg5TRCBHdW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm54zb8q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -1664,25 +1630,24 @@
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F31" t="n">
-        <v>4.5</v>
+        <v>-8.005409999999999</v>
       </c>
       <c r="G31" t="n">
-        <v>-8.005409999999999</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.60354</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Jambe/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb391f559a3e9:0x9f0140975645ded7!8m2!3d-8.00541!4d110.60354!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5sTVdGZlUyRjNFQUXgAQD6AQUIjAEQJQ!16s%2Fg%2F1hm1rkc26?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Jambe/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb391f559a3e9:0x9f0140975645ded7!8m2!3d-8.00541!4d110.60354!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5sTVdGZlUyRjNFQUXgAQD6AQUIjAEQJQ!16s%2Fg%2F1hm1rkc26?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1705,25 +1670,24 @@
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F32" t="n">
-        <v>4.5</v>
+        <v>-8.08052</v>
       </c>
       <c r="G32" t="n">
-        <v>-8.08052</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.63785</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Widoro/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb722d64af3a5:0x3fe5d5ef31f65766!8m2!3d-8.08052!4d110.6378496!15sCg5TRCBHdW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm47hz2c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Widoro/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb722d64af3a5:0x3fe5d5ef31f65766!8m2!3d-8.08052!4d110.6378496!15sCg5TRCBHdW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm47hz2c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -1746,25 +1710,24 @@
           <t>0856-4201-0902</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.6</v>
+        <v>-7.870437</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.870437</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.690234</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Unggulan+Ashidiq/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a4a1843d4b853:0x6a3aa5fdf9009987!8m2!3d-7.8704375!4d110.6902344!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBEWVsZW1lbnRhcnlfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJXT1c5RGNESlJSUkFC4AEA-gEECAAQLg!16s%2Fg%2F11ggbcjvb2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Unggulan+Ashidiq/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a4a1843d4b853:0x6a3aa5fdf9009987!8m2!3d-7.8704375!4d110.6902344!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBEWVsZW1lbnRhcnlfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJXT1c5RGNESlJSUkFC4AEA-gEECAAQLg!16s%2Fg%2F11ggbcjvb2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1783,25 +1746,24 @@
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F34" t="n">
-        <v>4.3</v>
+        <v>-7.971105</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.971105</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.583953</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Siraman+III/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb317cb9960dd:0x65413042dd2ef405!8m2!3d-7.9711045!4d110.5839529!15sCg5TRCBHdW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm3d112n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Siraman+III/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb317cb9960dd:0x65413042dd2ef405!8m2!3d-7.9711045!4d110.5839529!15sCg5TRCBHdW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm3d112n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1820,25 +1782,24 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F35" t="n">
-        <v>4.2</v>
+        <v>-7.85618</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.85618</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.586246</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SDN+Buyutan/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a4e90a5a75b21:0xc56632689726160b!8m2!3d-7.8561796!4d110.5862459!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJMWHpWUE5XcEJSUkFC4AEA-gEECAAQEw!16s%2Fg%2F11csqhjx97?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SDN+Buyutan/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a4e90a5a75b21:0xc56632689726160b!8m2!3d-7.8561796!4d110.5862459!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJMWHpWUE5XcEJSUkFC4AEA-gEECAAQEw!16s%2Fg%2F11csqhjx97?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -1857,25 +1818,24 @@
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F36" t="n">
-        <v>3.9</v>
+        <v>-7.867574</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.867574</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.46932</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SDN+Pugeran/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a517949c86d53:0xee64e61a6e23ba32!8m2!3d-7.8675738!4d110.4693199!15sCg5TRCBHdW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm2bh3v6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SDN+Pugeran/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a517949c86d53:0xee64e61a6e23ba32!8m2!3d-7.8675738!4d110.4693199!15sCg5TRCBHdW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm2bh3v6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -1894,25 +1854,24 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F37" t="n">
-        <v>4.5</v>
+        <v>-7.907702</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.907702</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.618329</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Kwarasan/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a4b7f94b226b3:0x4d5c8837f128764e!8m2!3d-7.9077017!4d110.6183288!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJDYjJOVFJEQm5SUkFC4AEA-gEECAAQJA!16s%2Fg%2F11dfgq4x4h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Kwarasan/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a4b7f94b226b3:0x4d5c8837f128764e!8m2!3d-7.9077017!4d110.6183288!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJDYjJOVFJEQm5SUkFC4AEA-gEECAAQJA!16s%2Fg%2F11dfgq4x4h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -1931,25 +1890,24 @@
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F38" t="n">
-        <v>4.4</v>
+        <v>-8.016411</v>
       </c>
       <c r="G38" t="n">
-        <v>-8.016411</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.6645</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Jragum/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb5cd4a997249:0x99c715aa9146e199!8m2!3d-8.0164112!4d110.6645003!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVI0YjNSWGQzbFJSUkFC4AEA-gEECAAQEA!16s%2Fg%2F1hm4_069b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Jragum/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb5cd4a997249:0x99c715aa9146e199!8m2!3d-8.0164112!4d110.6645003!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVI0YjNSWGQzbFJSUkFC4AEA-gEECAAQEA!16s%2Fg%2F1hm4_069b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1976,25 +1934,24 @@
           <t>(0274) 7115079</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>5</v>
+      </c>
       <c r="F39" t="n">
-        <v>5</v>
+        <v>-7.96396</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.96396</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.608507</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+BOPKRI+Wonosari+II/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb35b8de4e35b:0x26a2efc42fc725e!8m2!3d-7.9639602!4d110.6085074!15sCg5TRCBHdW51bmdraWR1bJIBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F1pzszst0f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+BOPKRI+Wonosari+II/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb35b8de4e35b:0x26a2efc42fc725e!8m2!3d-7.9639602!4d110.6085074!15sCg5TRCBHdW51bmdraWR1bJIBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F1pzszst0f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2013,25 +1970,24 @@
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F40" t="n">
-        <v>4.5</v>
+        <v>-7.940015</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.940015</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.59128</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Piyaman/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a4cc8420f362f:0xf3f1657de3598a5e!8m2!3d-7.9400154!4d110.5912795!15sCg5TRCBHdW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm1_ng03?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Piyaman/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a4cc8420f362f:0xf3f1657de3598a5e!8m2!3d-7.9400154!4d110.5912795!15sCg5TRCBHdW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm1_ng03?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2054,25 +2010,24 @@
           <t>0819-0406-5068</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F41" t="n">
-        <v>4.5</v>
+        <v>-8.002361000000001</v>
       </c>
       <c r="G41" t="n">
-        <v>-8.002361000000001</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.5604</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Pelemgede/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb24e2ae5c427:0x6a49b87b06d19145!8m2!3d-8.0023611!4d110.5604004!15sCg5TRCBHdW51bmdraWR1bJIBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F1hm5fc5tp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Pelemgede/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb24e2ae5c427:0x6a49b87b06d19145!8m2!3d-8.0023611!4d110.5604004!15sCg5TRCBHdW51bmdraWR1bJIBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F1hm5fc5tp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -2091,25 +2046,24 @@
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>4</v>
+      </c>
       <c r="F42" t="n">
-        <v>4</v>
+        <v>-8.037587</v>
       </c>
       <c r="G42" t="n">
-        <v>-8.037587</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.544564</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+MI+GUPPI+BULUREJO+MONGGOL+SAPTOSARI+GUNUNG+KIDUL/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb1f4d07be069:0x6cf6fe502c7565f2!8m2!3d-8.0375869!4d110.5445639!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5pY1RjeVltWjNFQUXgAQD6AQQIABAQ!16s%2Fg%2F11c20bv5b4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J42" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+MI+GUPPI+BULUREJO+MONGGOL+SAPTOSARI+GUNUNG+KIDUL/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb1f4d07be069:0x6cf6fe502c7565f2!8m2!3d-8.0375869!4d110.5445639!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5pY1RjeVltWjNFQUXgAQD6AQQIABAQ!16s%2Fg%2F11c20bv5b4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -2128,25 +2082,24 @@
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F43" t="n">
-        <v>3.9</v>
+        <v>-7.875566</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.875566</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.597311</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+SENDOWO+II/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a4c19bef6c43d:0xb79044fb75198b8c!8m2!3d-7.8755662!4d110.5973106!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJDZERaVFJFUm5FQUXgAQD6AQQIABAn!16s%2Fg%2F1hm5x9dl3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+SENDOWO+II/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a4c19bef6c43d:0xb79044fb75198b8c!8m2!3d-7.8755662!4d110.5973106!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJDZERaVFJFUm5FQUXgAQD6AQQIABAn!16s%2Fg%2F1hm5x9dl3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -2165,25 +2118,24 @@
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F44" t="n">
-        <v>4.8</v>
+        <v>-8.05397</v>
       </c>
       <c r="G44" t="n">
-        <v>-8.05397</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.64099</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Hargosari/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb6ea0bbea767:0xf8de1a3a1ad935a3!8m2!3d-8.05397!4d110.64099!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBEWVsZW1lbnRhcnlfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVF6ZWpsSFduRkJSUkFC4AEA-gEECAAQJw!16s%2Fg%2F1hm4wtp2t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J44" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Hargosari/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb6ea0bbea767:0xf8de1a3a1ad935a3!8m2!3d-8.05397!4d110.64099!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBEWVsZW1lbnRhcnlfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVF6ZWpsSFduRkJSUkFC4AEA-gEECAAQJw!16s%2Fg%2F1hm4wtp2t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -2206,25 +2158,24 @@
           <t>(0274) 391523</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F45" t="n">
-        <v>4.5</v>
+        <v>-7.970509</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.970509</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.607409</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Kanisius+Wonosari+2/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb363263bd3bb:0x5394557540a4efd7!8m2!3d-7.9705092!4d110.6074085!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBEWVsZW1lbnRhcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5sTTJFM2FrRm5FQUXgAQD6AQQIShAx!16s%2Fg%2F1hd_kjd3w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Kanisius+Wonosari+2/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb363263bd3bb:0x5394557540a4efd7!8m2!3d-7.9705092!4d110.6074085!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBEWVsZW1lbnRhcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5sTTJFM2FrRm5FQUXgAQD6AQQIShAx!16s%2Fg%2F1hd_kjd3w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -2243,25 +2194,24 @@
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F46" t="n">
-        <v>4.7</v>
+        <v>-7.817981</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.817981</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.618033</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SDN+Guyangan/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a48d33f0db5a9:0x70f59fdf2b938f20!8m2!3d-7.8179809!4d110.6180328!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVEzZGsxMmFHSjNFQUXgAQD6AQQIABA3!16s%2Fg%2F1hm4tj3k3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J46" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SDN+Guyangan/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a48d33f0db5a9:0x70f59fdf2b938f20!8m2!3d-7.8179809!4d110.6180328!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVEzZGsxMmFHSjNFQUXgAQD6AQQIABA3!16s%2Fg%2F1hm4tj3k3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -2280,25 +2230,24 @@
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>3.6</v>
+      </c>
       <c r="F47" t="n">
-        <v>3.6</v>
+        <v>-7.998356</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.998356</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.592214</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Duwet+Wonosari/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb3a2883fe5eb:0x65a010df0ca4fc99!8m2!3d-7.9983557!4d110.5922141!15sCg5TRCBHdW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F11ck6vxhzy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J47" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Duwet+Wonosari/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb3a2883fe5eb:0x65a010df0ca4fc99!8m2!3d-7.9983557!4d110.5922141!15sCg5TRCBHdW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F11ck6vxhzy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2321,25 +2270,24 @@
           <t>(0274) 394251</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F48" t="n">
-        <v>4.1</v>
+        <v>-7.942906</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.942906</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.604673</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SDN+Piyaman+2/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a4cb1e4d26ab7:0x4682e34bdba438d0!8m2!3d-7.942906!4d110.6046726!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBEWVsZW1lbnRhcnlfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU53ZDNWaGFqaFJSUkFC4AEA-gEECAAQLw!16s%2Fg%2F1tj6lcc5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J48" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SDN+Piyaman+2/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a4cb1e4d26ab7:0x4682e34bdba438d0!8m2!3d-7.942906!4d110.6046726!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBEWVsZW1lbnRhcnlfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU53ZDNWaGFqaFJSUkFC4AEA-gEECAAQLw!16s%2Fg%2F1tj6lcc5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -2362,25 +2310,24 @@
           <t>(0274) 391421</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F49" t="n">
-        <v>4.5</v>
+        <v>-7.965164</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.965164</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.601917</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Wonosari+V/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb3439d94c897:0x8b1c58c4ba953998!8m2!3d-7.965164!4d110.601917!15sCg5TRCBHdW51bmdraWR1bJIBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F1pzpt2_4g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J49" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Wonosari+V/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb3439d94c897:0x8b1c58c4ba953998!8m2!3d-7.965164!4d110.601917!15sCg5TRCBHdW51bmdraWR1bJIBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F1pzpt2_4g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -2399,25 +2346,24 @@
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F50" t="n">
-        <v>4.3</v>
+        <v>-8.001571</v>
       </c>
       <c r="G50" t="n">
-        <v>-8.001571</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.64934</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SDN+Semanu/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb4444bd1c347:0xb1586fc12b4ce2fa!8m2!3d-8.0015715!4d110.6493402!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5VY0hOdFIxRlJFQUXgAQD6AQQIABAQ!16s%2Fg%2F11f0xhttm5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J50" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SDN+Semanu/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb4444bd1c347:0xb1586fc12b4ce2fa!8m2!3d-8.0015715!4d110.6493402!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5VY0hOdFIxRlJFQUXgAQD6AQQIABAQ!16s%2Fg%2F11f0xhttm5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -2436,25 +2382,24 @@
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F51" t="n">
-        <v>4.8</v>
+        <v>-8.001283000000001</v>
       </c>
       <c r="G51" t="n">
-        <v>-8.001283000000001</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.500601</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Paliyan+II/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bad98d807a011:0xef0228c06932c4ae!8m2!3d-8.0012828!4d110.5006013!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBEWVsZW1lbnRhcnlfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJsZG5KdVVuRm5SUkFC4AEA-gEECAAQEw!16s%2Fg%2F11gbwxvy6y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J51" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Paliyan+II/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bad98d807a011:0xef0228c06932c4ae!8m2!3d-8.0012828!4d110.5006013!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBEWVsZW1lbnRhcnlfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJsZG5KdVVuRm5SUkFC4AEA-gEECAAQEw!16s%2Fg%2F11gbwxvy6y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -2477,25 +2422,24 @@
           <t>0822-2390-4732</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F52" t="n">
-        <v>4.5</v>
+        <v>-7.92587</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.92587</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.642666</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Gelaran+1/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a4b1563be530f:0x5f4e21d1044872f0!8m2!3d-7.9258704!4d110.6426663!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBEWVsZW1lbnRhcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVIyTVhCaFowOVJFQUXgAQD6AQQIABAg!16s%2Fg%2F11f53pv90h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J52" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Gelaran+1/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a4b1563be530f:0x5f4e21d1044872f0!8m2!3d-7.9258704!4d110.6426663!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBEWVsZW1lbnRhcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVIyTVhCaFowOVJFQUXgAQD6AQQIABAg!16s%2Fg%2F11f53pv90h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2514,25 +2458,24 @@
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F53" t="n">
-        <v>3.9</v>
+        <v>-7.99655</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.99655</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.69291</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Kanisius+Trengguno/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb597420f733b:0xfb08eb47f07129b5!8m2!3d-7.99655!4d110.69291!15sCg5TRCBHdW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm4912dn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J53" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Kanisius+Trengguno/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb597420f733b:0xfb08eb47f07129b5!8m2!3d-7.99655!4d110.69291!15sCg5TRCBHdW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm4912dn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2555,25 +2498,24 @@
           <t>(0274) 392600</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>3.3</v>
+      </c>
       <c r="F54" t="n">
-        <v>3.3</v>
+        <v>-7.986396</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.986396</v>
-      </c>
-      <c r="H54" t="n">
         <v>110.596259</v>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Karangrejek+I/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb374608b6e45:0xd43a12beabc89c6f!8m2!3d-7.986396!4d110.5962586!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJsTmxwWVIwcEJFQUXgAQD6AQQIFBAk!16s%2Fg%2F1hm2kt63y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J54" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Karangrejek+I/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb374608b6e45:0xd43a12beabc89c6f!8m2!3d-7.986396!4d110.5962586!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJsTmxwWVIwcEJFQUXgAQD6AQQIFBAk!16s%2Fg%2F1hm2kt63y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -2592,25 +2534,24 @@
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F55" t="n">
-        <v>4.1</v>
+        <v>-8.061489999999999</v>
       </c>
       <c r="G55" t="n">
-        <v>-8.061489999999999</v>
-      </c>
-      <c r="H55" t="n">
         <v>110.56403</v>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Panggang/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb1a6887c0f65:0x210c7345bf911fac!8m2!3d-8.0614899!4d110.56403!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJSTm05SE1teG5SUkFC4AEA-gEECAAQKA!16s%2Fg%2F1hm3rbcm7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J55" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Panggang/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb1a6887c0f65:0x210c7345bf911fac!8m2!3d-8.0614899!4d110.56403!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJSTm05SE1teG5SUkFC4AEA-gEECAAQKA!16s%2Fg%2F1hm3rbcm7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2629,25 +2570,24 @@
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F56" t="n">
-        <v>4.6</v>
+        <v>-7.999067</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.999067</v>
-      </c>
-      <c r="H56" t="n">
         <v>110.671604</v>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Ngeposari/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb5b19efe2c8f:0xb066c43ea5b09808!8m2!3d-7.9990675!4d110.6716038!15sCg5TRCBHdW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm5rl0v2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J56" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Ngeposari/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb5b19efe2c8f:0xb066c43ea5b09808!8m2!3d-7.9990675!4d110.6716038!15sCg5TRCBHdW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm5rl0v2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2666,25 +2606,24 @@
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F57" t="n">
-        <v>4.5</v>
+        <v>-7.864741</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.864741</v>
-      </c>
-      <c r="H57" t="n">
         <v>110.513216</v>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Sidomulyo/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a51fbc9a65315:0x61f346116eee380a!8m2!3d-7.8647412!4d110.5132164!15sCg5TRCBHdW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm400ptf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J57" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Sidomulyo/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a51fbc9a65315:0x61f346116eee380a!8m2!3d-7.8647412!4d110.5132164!15sCg5TRCBHdW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm400ptf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -2707,25 +2646,24 @@
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F58" t="n">
-        <v>3.9</v>
+        <v>-7.998955</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.998955</v>
-      </c>
-      <c r="H58" t="n">
         <v>110.653867</v>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Semanu+III/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb4444b94f3f1:0x9ae1500d36fabf9e!8m2!3d-7.9989546!4d110.6538665!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJQYkMxeGJIbFJSUkFC4AEA-gEECAAQIQ!16s%2Fg%2F1hm5dg643?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J58" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Semanu+III/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb4444b94f3f1:0x9ae1500d36fabf9e!8m2!3d-7.9989546!4d110.6538665!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJQYkMxeGJIbFJSUkFC4AEA-gEECAAQIQ!16s%2Fg%2F1hm5dg643?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -2744,25 +2682,24 @@
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F59" t="n">
-        <v>4.1</v>
+        <v>-7.968881</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.968881</v>
-      </c>
-      <c r="H59" t="n">
         <v>110.563053</v>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Kanisius+Pulutan/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb2ddd4e4d1ad:0xf8c5bf36543c711d!8m2!3d-7.968881!4d110.5630525!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJoZDNKaFJsQjNFQUXgAQD6AQQIABBI!16s%2Fg%2F1hm3559tn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J59" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Kanisius+Pulutan/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb2ddd4e4d1ad:0xf8c5bf36543c711d!8m2!3d-7.968881!4d110.5630525!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJoZDNKaFJsQjNFQUXgAQD6AQQIABBI!16s%2Fg%2F1hm3559tn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2785,25 +2722,24 @@
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F60" t="n">
-        <v>4.9</v>
+        <v>-7.952806</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.952806</v>
-      </c>
-      <c r="H60" t="n">
         <v>110.541879</v>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+QU+AL-ITISHAM+PLAYEN/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb2b4de8a50c7:0xa0822b2900f96884!8m2!3d-7.9528058!4d110.5418789!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBBnNjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSSWIzTjVSMXBSRUFF4AEA-gEECAAQHQ!16s%2Fg%2F11crzfbkc5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J60" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+QU+AL-ITISHAM+PLAYEN/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb2b4de8a50c7:0xa0822b2900f96884!8m2!3d-7.9528058!4d110.5418789!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBBnNjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSSWIzTjVSMXBSRUFF4AEA-gEECAAQHQ!16s%2Fg%2F11crzfbkc5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -2830,25 +2766,24 @@
           <t>0852-2606-8686</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F61" t="n">
-        <v>4.9</v>
+        <v>-8.089022</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.089022</v>
-      </c>
-      <c r="H61" t="n">
         <v>110.521635</v>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+KANIGORO+I/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb02787e76d0f:0xe965a6fda2af328a!8m2!3d-8.0890224!4d110.5216345!15sCg5TRCBHdW51bmdraWR1bJIBDXB1YmxpY19zY2hvb2zgAQA!16s%2Fg%2F11ggmp6q8_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J61" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+KANIGORO+I/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb02787e76d0f:0xe965a6fda2af328a!8m2!3d-8.0890224!4d110.5216345!15sCg5TRCBHdW51bmdraWR1bJIBDXB1YmxpY19zY2hvb2zgAQA!16s%2Fg%2F11ggmp6q8_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -2867,25 +2802,24 @@
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>5</v>
+      </c>
       <c r="F62" t="n">
-        <v>5</v>
+        <v>-7.914684</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.914684</v>
-      </c>
-      <c r="H62" t="n">
         <v>110.569865</v>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Kanisius+Beji/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a4cfdfb001ce5:0x9e5b6048b64880ea!8m2!3d-7.9146844!4d110.5698653!15sCg5TRCBHdW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm4j68bx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J62" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Kanisius+Beji/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a4cfdfb001ce5:0x9e5b6048b64880ea!8m2!3d-7.9146844!4d110.5698653!15sCg5TRCBHdW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm4j68bx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
         <is>
           <t>10 bulan lalu</t>
         </is>
@@ -2904,25 +2838,24 @@
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>3.6</v>
+      </c>
       <c r="F63" t="n">
-        <v>3.6</v>
+        <v>-8.008977</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.008977</v>
-      </c>
-      <c r="H63" t="n">
         <v>110.549093</v>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+NEGERI+MULUSAN/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb241706bc007:0x23788d93eca62bef!8m2!3d-8.0089773!4d110.5490934!15sCg5TRCBHdW51bmdraWR1bJIBBnNjaG9vbOABAA!16s%2Fg%2F11g721l05k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J63" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+NEGERI+MULUSAN/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb241706bc007:0x23788d93eca62bef!8m2!3d-8.0089773!4d110.5490934!15sCg5TRCBHdW51bmdraWR1bJIBBnNjaG9vbOABAA!16s%2Fg%2F11g721l05k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -2941,25 +2874,24 @@
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F64" t="n">
-        <v>4.8</v>
+        <v>-7.871906</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.871906</v>
-      </c>
-      <c r="H64" t="n">
         <v>110.525872</v>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+MUHAMMADIYAH+UNGGULAN+%22AL+FATIH%22+PATUK/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a4db0d271301f:0x9ebe711d6a773cb!8m2!3d-7.8719059!4d110.5258719!15sCg5TRCBHdW51bmdraWR1bJIBBnNjaG9vbOABAA!16s%2Fg%2F11j9fmcxb7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J64" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+MUHAMMADIYAH+UNGGULAN+%22AL+FATIH%22+PATUK/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a4db0d271301f:0x9ebe711d6a773cb!8m2!3d-7.8719059!4d110.5258719!15sCg5TRCBHdW51bmdraWR1bJIBBnNjaG9vbOABAA!16s%2Fg%2F11j9fmcxb7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2978,25 +2910,24 @@
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F65" t="n">
-        <v>4.6</v>
+        <v>-7.919642</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.919642</v>
-      </c>
-      <c r="H65" t="n">
         <v>110.597768</v>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Gari+III/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a4c923ebc53af:0x1c03a21b13745152!8m2!3d-7.9196419!4d110.5977682!15sCg5TRCBHdW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F11c3k57nkt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J65" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Gari+III/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a4c923ebc53af:0x1c03a21b13745152!8m2!3d-7.9196419!4d110.5977682!15sCg5TRCBHdW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F11c3k57nkt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -3015,25 +2946,24 @@
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F66" t="n">
-        <v>4.5</v>
+        <v>-7.990042</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.990042</v>
-      </c>
-      <c r="H66" t="n">
         <v>110.578146</v>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+SIRAMAN+II/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb30775567151:0x3e5d47b73905bede!8m2!3d-7.9900423!4d110.5781459!15sCg5TRCBHdW51bmdraWR1bJIBBnNjaG9vbOABAA!16s%2Fg%2F11gcm06r9n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J66" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+SIRAMAN+II/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb30775567151:0x3e5d47b73905bede!8m2!3d-7.9900423!4d110.5781459!15sCg5TRCBHdW51bmdraWR1bJIBBnNjaG9vbOABAA!16s%2Fg%2F11gcm06r9n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -3052,25 +2982,24 @@
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F67" t="n">
-        <v>4.1</v>
+        <v>-8.048249</v>
       </c>
       <c r="G67" t="n">
-        <v>-8.048249</v>
-      </c>
-      <c r="H67" t="n">
         <v>110.66873</v>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Plebengan/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb6609ef2884b:0x993900e8cddf2508!8m2!3d-8.0482494!4d110.66873!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJoY25JMlZWTm5FQUXgAQD6AQQIABAd!16s%2Fg%2F1hm5wpwm3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J67" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Plebengan/@-8.00266,110.2769189,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb6609ef2884b:0x993900e8cddf2508!8m2!3d-8.0482494!4d110.66873!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJoY25JMlZWTm5FQUXgAQD6AQQIABAd!16s%2Fg%2F1hm5wpwm3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3089,25 +3018,24 @@
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>5</v>
+      </c>
       <c r="F68" t="n">
-        <v>5</v>
+        <v>-7.97716</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.97716</v>
-      </c>
-      <c r="H68" t="n">
         <v>110.71004</v>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Ponjong+5/@-7.97716,110.4216489,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb57da585c72b:0xdc4c7957ac0b8f4a!8m2!3d-7.97716!4d110.71004!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBBnNjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOWmFEVXRielZuUlJBQuABAPoBBQi6AhA2!16s%2Fg%2F1hm476hdm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J68" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Ponjong+5/@-7.97716,110.4216489,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb57da585c72b:0xdc4c7957ac0b8f4a!8m2!3d-7.97716!4d110.71004!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBBnNjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOWmFEVXRielZuUlJBQuABAPoBBQi6AhA2!16s%2Fg%2F1hm476hdm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3126,25 +3054,24 @@
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F69" t="n">
-        <v>4.5</v>
+        <v>-7.949027</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.949027</v>
-      </c>
-      <c r="H69" t="n">
         <v>110.549501</v>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SDN+PLAYEN+IV/@-7.949027,110.2611102,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a4d34f435afa1:0x7e1cca8ed83e33c0!8m2!3d-7.949027!4d110.5495013!15sCg5TRCBHdW51bmdraWR1bJIBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F11f4lc2nw0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J69" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SDN+PLAYEN+IV/@-7.949027,110.2611102,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a4d34f435afa1:0x7e1cca8ed83e33c0!8m2!3d-7.949027!4d110.5495013!15sCg5TRCBHdW51bmdraWR1bJIBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F11f4lc2nw0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3163,25 +3090,24 @@
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F70" t="n">
-        <v>4.6</v>
+        <v>-7.970557</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.970557</v>
-      </c>
-      <c r="H70" t="n">
         <v>110.573325</v>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Siraman/@-7.949027,110.2611102,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb321d8d8df03:0x3d57becc6284c84c!8m2!3d-7.9705565!4d110.5733252!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5NTURaZk1FbDNFQUXgAQD6AQQIABBI!16s%2Fg%2F1hm62dqj9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J70" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Siraman/@-7.949027,110.2611102,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb321d8d8df03:0x3d57becc6284c84c!8m2!3d-7.9705565!4d110.5733252!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5NTURaZk1FbDNFQUXgAQD6AQQIABBI!16s%2Fg%2F1hm62dqj9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -3200,25 +3126,24 @@
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F71" t="n">
-        <v>4.5</v>
+        <v>-7.93982</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.93982</v>
-      </c>
-      <c r="H71" t="n">
         <v>110.74014</v>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SDN+Sendang/@-7.93982,110.4517489,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a3534ee0dfb25:0x8060c84ce10f3bb1!8m2!3d-7.93982!4d110.74014!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJQT0ZsaFR6TlJSUkFC4AEA-gEECAAQLA!16s%2Fg%2F1hm2788vn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J71" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SDN+Sendang/@-7.93982,110.4517489,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a3534ee0dfb25:0x8060c84ce10f3bb1!8m2!3d-7.93982!4d110.74014!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJQT0ZsaFR6TlJSUkFC4AEA-gEECAAQLA!16s%2Fg%2F1hm2788vn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3237,25 +3162,24 @@
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>5</v>
+      </c>
       <c r="F72" t="n">
-        <v>5</v>
+        <v>-8.020234</v>
       </c>
       <c r="G72" t="n">
-        <v>-8.020234</v>
-      </c>
-      <c r="H72" t="n">
         <v>110.665195</v>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Wediwutah/@-7.93982,110.4517489,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb5d3283f59e9:0xf13ffe49690cbd21!8m2!3d-8.0202338!4d110.665195!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJDZW05cU5EVlJSUkFC4AEA-gEECAAQPg!16s%2Fg%2F1hm55r1dv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J72" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Wediwutah/@-7.93982,110.4517489,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb5d3283f59e9:0xf13ffe49690cbd21!8m2!3d-8.0202338!4d110.665195!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJDZW05cU5EVlJSUkFC4AEA-gEECAAQPg!16s%2Fg%2F1hm55r1dv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3274,25 +3198,24 @@
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F73" t="n">
-        <v>4.6</v>
+        <v>-7.812197</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.812197</v>
-      </c>
-      <c r="H73" t="n">
         <v>110.774631</v>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Lemahbang/@-7.93982,110.4517489,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a371c8900fc2f:0x485ad909fd6af9b2!8m2!3d-7.8121968!4d110.7746308!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5CYjJKSVJGaFJFQUXgAQD6AQQIABAl!16s%2Fg%2F1hm3yrrtt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J73" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Lemahbang/@-7.93982,110.4517489,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7a371c8900fc2f:0x485ad909fd6af9b2!8m2!3d-7.8121968!4d110.7746308!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5CYjJKSVJGaFJFQUXgAQD6AQQIABAl!16s%2Fg%2F1hm3yrrtt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -3315,25 +3238,24 @@
           <t>0822-2065-1844</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>3.5</v>
+      </c>
       <c r="F74" t="n">
-        <v>3.5</v>
+        <v>-8.035162</v>
       </c>
       <c r="G74" t="n">
-        <v>-8.035162</v>
-      </c>
-      <c r="H74" t="n">
         <v>110.410095</v>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SDN+Klampok/@-8.0351618,110.1217036,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7babde8c22d54f:0xc776ef617d8bc409!8m2!3d-8.0351618!4d110.4100947!15sCg5TRCBHdW51bmdraWR1bJIBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F1hm2szpx0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J74" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SDN+Klampok/@-8.0351618,110.1217036,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7babde8c22d54f:0xc776ef617d8bc409!8m2!3d-8.0351618!4d110.4100947!15sCg5TRCBHdW51bmdraWR1bJIBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F1hm2szpx0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -3352,25 +3274,24 @@
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F75" t="n">
-        <v>4.2</v>
+        <v>-7.998308</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.998308</v>
-      </c>
-      <c r="H75" t="n">
         <v>110.739227</v>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Ngabean/@-7.9983083,110.4508359,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bca43d50c30fb:0x80fdadf6bba807b7!8m2!3d-7.9983083!4d110.739227!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU4xZFdOaGFXTm5FQUXgAQD6AQQIABA0!16s%2Fg%2F1hm3ptvxv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J75" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Ngabean/@-7.9983083,110.4508359,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bca43d50c30fb:0x80fdadf6bba807b7!8m2!3d-7.9983083!4d110.739227!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU4xZFdOaGFXTm5FQUXgAQD6AQQIABA0!16s%2Fg%2F1hm3ptvxv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -3393,25 +3314,24 @@
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F76" t="n">
-        <v>3.8</v>
+        <v>-8.031328999999999</v>
       </c>
       <c r="G76" t="n">
-        <v>-8.031328999999999</v>
-      </c>
-      <c r="H76" t="n">
         <v>110.746626</v>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SDN+SURUBENDO+PONJONG/@-7.9983083,110.4508359,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bca24bc0c3921:0xe238b4ac8b067f0c!8m2!3d-8.0313295!4d110.7466263!15sCg5TRCBHdW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm3lgfc4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J76" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SDN+SURUBENDO+PONJONG/@-7.9983083,110.4508359,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bca24bc0c3921:0xe238b4ac8b067f0c!8m2!3d-8.0313295!4d110.7466263!15sCg5TRCBHdW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm3lgfc4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -3434,25 +3354,24 @@
           <t>0821-4213-5818</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F77" t="n">
-        <v>4.7</v>
+        <v>-8.018200999999999</v>
       </c>
       <c r="G77" t="n">
-        <v>-8.018200999999999</v>
-      </c>
-      <c r="H77" t="n">
         <v>110.6442</v>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SDN+SEMANU+IV/@-7.9983083,110.4508359,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb43cda08a421:0xc0d823a2708fd746!8m2!3d-8.0182009!4d110.6442!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJsTXkxWGVtVlJFQUXgAQD6AQQIABAo!16s%2Fg%2F11ggsm0w80?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J77" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SDN+SEMANU+IV/@-7.9983083,110.4508359,11z/data=!4m10!1m2!2m1!1sSD+Gunungkidul!3m6!1s0x2e7bb43cda08a421:0xc0d823a2708fd746!8m2!3d-8.0182009!4d110.6442!15sCg5TRCBHdW51bmdraWR1bFoQIg5zZCBndW51bmdraWR1bJIBDnByaW1hcnlfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJsTXkxWGVtVlJFQUXgAQD6AQQIABAo!16s%2Fg%2F11ggsm0w80?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
